--- a/xls/square_un_4_tri3_3.xlsx
+++ b/xls/square_un_4_tri3_3.xlsx
@@ -418,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,7 +464,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -485,13 +485,13 @@
         <v>54</v>
       </c>
       <c r="I3">
-        <v>15.261159309015301</v>
+        <v>23.70409099956873</v>
       </c>
       <c r="J3">
-        <v>2.8796414271734685</v>
+        <v>8.147028302809423</v>
       </c>
       <c r="K3">
-        <v>2.8657484849761334</v>
+        <v>8.022239050929665</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -499,7 +499,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -520,13 +520,13 @@
         <v>96</v>
       </c>
       <c r="I4">
-        <v>-0.5109491450021892</v>
+        <v>0.08430096275937499</v>
       </c>
       <c r="J4">
-        <v>-0.5228865918625262</v>
+        <v>-0.15832505547514786</v>
       </c>
       <c r="K4">
-        <v>-0.18863615958124597</v>
+        <v>0.12942371753595744</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -534,7 +534,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -555,13 +555,13 @@
         <v>150</v>
       </c>
       <c r="I5">
-        <v>0.00031613206822958155</v>
+        <v>-0.15101264405340148</v>
       </c>
       <c r="J5">
-        <v>-0.0014841460661940613</v>
+        <v>-0.12383970216577263</v>
       </c>
       <c r="K5">
-        <v>1.4181777496968189</v>
+        <v>1.2819091575525379</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -569,7 +569,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -590,13 +590,13 @@
         <v>216</v>
       </c>
       <c r="I6">
-        <v>-4.048493021604248e-7</v>
+        <v>7.403565867511931e-7</v>
       </c>
       <c r="J6">
-        <v>-2.611827936897769e-7</v>
+        <v>1.483282664279239e-7</v>
       </c>
       <c r="K6">
-        <v>0.9672144515914793</v>
+        <v>1.322516665041083</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -604,7 +604,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -625,13 +625,13 @@
         <v>294</v>
       </c>
       <c r="I7">
-        <v>-5.883730235252331e-8</v>
+        <v>-1.8220459469296008e-8</v>
       </c>
       <c r="J7">
-        <v>-4.2347403068645325e-8</v>
+        <v>-9.128199684424278e-8</v>
       </c>
       <c r="K7">
-        <v>0.6752478399527643</v>
+        <v>1.0638994512737936</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -639,7 +639,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -660,13 +660,13 @@
         <v>384</v>
       </c>
       <c r="I8">
-        <v>-5.0600875600544594e-8</v>
+        <v>-8.671362930003724e-8</v>
       </c>
       <c r="J8">
-        <v>-3.466396288177411e-8</v>
+        <v>-9.163786818083595e-8</v>
       </c>
       <c r="K8">
-        <v>0.5968398170210825</v>
+        <v>0.930362060065994</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -674,7 +674,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -695,13 +695,13 @@
         <v>486</v>
       </c>
       <c r="I9">
-        <v>-3.757359439604618e-8</v>
+        <v>-4.4920365170955146e-8</v>
       </c>
       <c r="J9">
-        <v>-2.5258173649736566e-8</v>
+        <v>-3.501999960236334e-8</v>
       </c>
       <c r="K9">
-        <v>0.5163916124661385</v>
+        <v>0.6371733984891307</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -709,7 +709,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -730,13 +730,13 @@
         <v>600</v>
       </c>
       <c r="I10">
-        <v>-2.404180442476618e-8</v>
+        <v>-3.8495346596377746e-8</v>
       </c>
       <c r="J10">
-        <v>-1.6118504585479573e-8</v>
+        <v>-2.920756570580839e-8</v>
       </c>
       <c r="K10">
-        <v>0.4273282815798454</v>
+        <v>0.5876743055675451</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -744,7 +744,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -765,13 +765,13 @@
         <v>726</v>
       </c>
       <c r="I11">
-        <v>-2.333922543311076e-8</v>
+        <v>-3.5417372175250917e-8</v>
       </c>
       <c r="J11">
-        <v>-1.5541709303581718e-8</v>
+        <v>-2.7194605663284488e-8</v>
       </c>
       <c r="K11">
-        <v>0.4156074308102486</v>
+        <v>0.5771510041087278</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -779,7 +779,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -800,13 +800,13 @@
         <v>864</v>
       </c>
       <c r="I12">
-        <v>-2.388894891782427e-8</v>
+        <v>-3.296538762277053e-8</v>
       </c>
       <c r="J12">
-        <v>-1.5823345827346813e-8</v>
+        <v>-2.508005594356388e-8</v>
       </c>
       <c r="K12">
-        <v>0.4146502039643842</v>
+        <v>0.5563240577530999</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -814,7 +814,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -835,13 +835,13 @@
         <v>1014</v>
       </c>
       <c r="I13">
-        <v>-2.1506386078883406e-8</v>
+        <v>-3.246314896462659e-8</v>
       </c>
       <c r="J13">
-        <v>-1.4219117310373072e-8</v>
+        <v>-2.448496046174998e-8</v>
       </c>
       <c r="K13">
-        <v>0.3934583722001795</v>
+        <v>0.5473784079150708</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -849,7 +849,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -870,13 +870,13 @@
         <v>1176</v>
       </c>
       <c r="I14">
-        <v>-2.120944943466835e-8</v>
+        <v>-3.160998052296751e-8</v>
       </c>
       <c r="J14">
-        <v>-1.3989070187247166e-8</v>
+        <v>-2.3776804666900464e-8</v>
       </c>
       <c r="K14">
-        <v>0.38867825738258355</v>
+        <v>0.5400926463649736</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -884,7 +884,7 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -905,13 +905,13 @@
         <v>1350</v>
       </c>
       <c r="I15">
-        <v>-2.134292234336747e-8</v>
+        <v>-3.0951217235339545e-8</v>
       </c>
       <c r="J15">
-        <v>-1.404629747935129e-8</v>
+        <v>-2.3248821030114494e-8</v>
       </c>
       <c r="K15">
-        <v>0.3877622642053063</v>
+        <v>0.5347863901672686</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -919,7 +919,7 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -940,13 +940,13 @@
         <v>1536</v>
       </c>
       <c r="I16">
-        <v>-2.067627501886946e-8</v>
+        <v>-3.056634027808019e-8</v>
       </c>
       <c r="J16">
-        <v>-1.3588171570474355e-8</v>
+        <v>-2.290963478534895e-8</v>
       </c>
       <c r="K16">
-        <v>0.3806821316527005</v>
+        <v>0.5307255101303514</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -954,7 +954,7 @@
         <v>11</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -975,13 +975,13 @@
         <v>1734</v>
       </c>
       <c r="I17">
-        <v>-2.0474585775035355e-8</v>
+        <v>-3.0238094564551145e-8</v>
       </c>
       <c r="J17">
-        <v>-1.3436824371848834e-8</v>
+        <v>-2.2609401779423922e-8</v>
       </c>
       <c r="K17">
-        <v>0.3776208307928276</v>
+        <v>0.5269155955727547</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -989,7 +989,7 @@
         <v>11</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -1010,13 +1010,13 @@
         <v>1944</v>
       </c>
       <c r="I18">
-        <v>-2.0418958735373778e-8</v>
+        <v>-2.996128680512732e-8</v>
       </c>
       <c r="J18">
-        <v>-1.3383994268558872e-8</v>
+        <v>-2.237137850610136e-8</v>
       </c>
       <c r="K18">
-        <v>0.3760086350520006</v>
+        <v>0.524094849812264</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1024,7 +1024,7 @@
         <v>11</v>
       </c>
       <c r="B19">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
@@ -1045,13 +1045,13 @@
         <v>2166</v>
       </c>
       <c r="I19">
-        <v>-2.019635226360893e-8</v>
+        <v>-2.973932401709936e-8</v>
       </c>
       <c r="J19">
-        <v>-1.3225382453463059e-8</v>
+        <v>-2.2181339109332827e-8</v>
       </c>
       <c r="K19">
-        <v>0.3731658707535201</v>
+        <v>0.5218267340753789</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1059,7 +1059,7 @@
         <v>11</v>
       </c>
       <c r="B20">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -1080,13 +1080,13 @@
         <v>2400</v>
       </c>
       <c r="I20">
-        <v>-2.0091999876361534e-8</v>
+        <v>-2.9552216847833812e-8</v>
       </c>
       <c r="J20">
-        <v>-1.3145585944323417e-8</v>
+        <v>-2.2021140490097397e-8</v>
       </c>
       <c r="K20">
-        <v>0.37144153638737215</v>
+        <v>0.5198960293666768</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1094,7 +1094,7 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -1115,13 +1115,13 @@
         <v>2646</v>
       </c>
       <c r="I21">
-        <v>-2.0019749180517414e-8</v>
+        <v>-2.9368360378542066e-8</v>
       </c>
       <c r="J21">
-        <v>-1.3088251467336841e-8</v>
+        <v>-2.1862904132765153e-8</v>
       </c>
       <c r="K21">
-        <v>0.3700995293437281</v>
+        <v>0.5179732333764888</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1129,7 +1129,7 @@
         <v>11</v>
       </c>
       <c r="B22">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -1150,13 +1150,13 @@
         <v>2904</v>
       </c>
       <c r="I22">
-        <v>-1.992323735457163e-8</v>
+        <v>-2.9224706241948477e-8</v>
       </c>
       <c r="J22">
-        <v>-1.3016489108101587e-8</v>
+        <v>-2.1740406138919576e-8</v>
       </c>
       <c r="K22">
-        <v>0.36863390843969424</v>
+        <v>0.5164892419106332</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1164,7 +1164,7 @@
         <v>11</v>
       </c>
       <c r="B23">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -1185,13 +1185,13 @@
         <v>3174</v>
       </c>
       <c r="I23">
-        <v>-1.9853887259474823e-8</v>
+        <v>-2.908710176595259e-8</v>
       </c>
       <c r="J23">
-        <v>-1.2963402300883498e-8</v>
+        <v>-2.162485679988023e-8</v>
       </c>
       <c r="K23">
-        <v>0.3674708201477356</v>
+        <v>0.515117685888004</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1199,7 +1199,7 @@
         <v>11</v>
       </c>
       <c r="B24">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -1220,13 +1220,293 @@
         <v>3456</v>
       </c>
       <c r="I24">
-        <v>-1.9800780007677727e-8</v>
+        <v>-2.8953895684301214e-8</v>
       </c>
       <c r="J24">
-        <v>-1.2921749669431995e-8</v>
+        <v>-2.15153810366387e-8</v>
       </c>
       <c r="K24">
-        <v>0.36650778558784264</v>
+        <v>0.5138573368003412</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>676</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25">
+        <v>3750</v>
+      </c>
+      <c r="I25">
+        <v>-2.882746728230645e-8</v>
+      </c>
+      <c r="J25">
+        <v>-2.141124523703404e-8</v>
+      </c>
+      <c r="K25">
+        <v>0.5126512196704361</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>729</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26">
+        <v>4056</v>
+      </c>
+      <c r="I26">
+        <v>-2.8712381107894314e-8</v>
+      </c>
+      <c r="J26">
+        <v>-2.131764375121593e-8</v>
+      </c>
+      <c r="K26">
+        <v>0.5115860020517632</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>30</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27">
+        <v>784</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27">
+        <v>4374</v>
+      </c>
+      <c r="I27">
+        <v>-2.860168956693265e-8</v>
+      </c>
+      <c r="J27">
+        <v>-2.1228604643534367e-8</v>
+      </c>
+      <c r="K27">
+        <v>0.5105890541475256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>30</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>841</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28">
+        <v>4704</v>
+      </c>
+      <c r="I28">
+        <v>-2.849166654605925e-8</v>
+      </c>
+      <c r="J28">
+        <v>-2.1141674809441324e-8</v>
+      </c>
+      <c r="K28">
+        <v>0.5096442280646043</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>30</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29">
+        <v>900</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29">
+        <v>5046</v>
+      </c>
+      <c r="I29">
+        <v>-2.8384862305858315e-8</v>
+      </c>
+      <c r="J29">
+        <v>-2.1057443742344426e-8</v>
+      </c>
+      <c r="K29">
+        <v>0.50873033843991</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>30</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>961</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30">
+        <v>5400</v>
+      </c>
+      <c r="I30">
+        <v>-2.828419051374104e-8</v>
+      </c>
+      <c r="J30">
+        <v>-2.0978732389516266e-8</v>
+      </c>
+      <c r="K30">
+        <v>0.5078879158841555</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <v>1024</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31">
+        <v>5766</v>
+      </c>
+      <c r="I31">
+        <v>-2.8184545392951e-8</v>
+      </c>
+      <c r="J31">
+        <v>-2.090155007440692e-8</v>
+      </c>
+      <c r="K31">
+        <v>0.5070752033436369</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32">
+        <v>1089</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32">
+        <v>6144</v>
+      </c>
+      <c r="I32">
+        <v>-2.8086603033518e-8</v>
+      </c>
+      <c r="J32">
+        <v>-2.082654308931466e-8</v>
+      </c>
+      <c r="K32">
+        <v>0.5063011485336639</v>
       </c>
     </row>
   </sheetData>
